--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1538233.891249767</v>
+        <v>-1542947.802204131</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13686731.67533952</v>
+        <v>13684371.75777784</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>238.7497695178954</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>138.9149814195008</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -713,13 +713,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -786,13 +786,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>26.96566453630902</v>
       </c>
       <c r="U3" t="n">
-        <v>151.5728472065624</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>116.7238898641494</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>81.22505629081253</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>81.15364580630603</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>74.0742125338442</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>62.46955506727205</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>74.60131606890377</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.13547981203878</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>10.74254676781117</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.25092428261765</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>314.1466833873294</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>104.3237735697871</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1382,7 +1382,7 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>228.6088402099799</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>72.77291452285013</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.371141336773988</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.60654830399159</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>165.5232663854352</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>86.58587572661148</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>4.267804733993243</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>19.76753335019655</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1554.791658217766</v>
+        <v>828.4192616998264</v>
       </c>
       <c r="C2" t="n">
-        <v>1554.791658217766</v>
+        <v>587.2578783484169</v>
       </c>
       <c r="D2" t="n">
-        <v>1554.791658217766</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.20813333431</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>735.3136948642879</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>322.150939352291</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253945</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354871</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297164</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.282367297164</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.282367297164</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.282367297164</v>
+        <v>1224.909970779225</v>
       </c>
       <c r="X2" t="n">
-        <v>1951.282367297164</v>
+        <v>1224.909970779225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1554.791658217766</v>
+        <v>828.4192616998264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.7726751562662</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>562.1184447163585</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686801</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1685.847551667355</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1463.307550038422</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1233.190304171709</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1043.88322652172</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>864.5690095972276</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.4547072792673</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="C4" t="n">
-        <v>356.4547072792673</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="D4" t="n">
-        <v>200.821594181782</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475496</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475496</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475496</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="X4" t="n">
-        <v>579.5667684626239</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="Y4" t="n">
-        <v>356.4547072792673</v>
+        <v>616.2331961130174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147.4454248982952</v>
+        <v>1470.161123332098</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596591</v>
+        <v>1470.161123332098</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596591</v>
+        <v>1084.719994548766</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596591</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634773</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475496</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.79005602327</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582686</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="U5" t="n">
-        <v>1657.536724017285</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="V5" t="n">
-        <v>1315.429914720803</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="W5" t="n">
-        <v>944.4308796890909</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="X5" t="n">
-        <v>944.4308796890909</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="Y5" t="n">
-        <v>547.9401706096921</v>
+        <v>1870.655869043495</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021429</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622351</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>505.1591874622351</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>368.7126965731228</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>244.2808904562546</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>82.3335786212441</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>402.0727246834705</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>885.6388105817838</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591876</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591876</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182857</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1999.807473100858</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1822.823661299766</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1612.760517978408</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1390.220516349475</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1160.103270482762</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675969</v>
+        <v>970.7961928327738</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431042</v>
+        <v>791.481975908281</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.9055288767759</v>
+        <v>595.9372187471113</v>
       </c>
       <c r="C7" t="n">
-        <v>209.9055288767759</v>
+        <v>595.9372187471113</v>
       </c>
       <c r="D7" t="n">
-        <v>209.9055288767759</v>
+        <v>540.244814896567</v>
       </c>
       <c r="E7" t="n">
-        <v>54.34671673597836</v>
+        <v>384.6860027557696</v>
       </c>
       <c r="F7" t="n">
-        <v>54.34671673597836</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G7" t="n">
-        <v>54.34671673597836</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H7" t="n">
-        <v>54.34671673597836</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.1135475680771</v>
+        <v>595.9372187471113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>786.5479079333334</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="C8" t="n">
-        <v>393.3724064362639</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1364.568822088344</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748986</v>
+        <v>993.5697870566318</v>
       </c>
       <c r="X8" t="n">
-        <v>1263.090055682043</v>
+        <v>604.1171819896886</v>
       </c>
       <c r="Y8" t="n">
-        <v>866.5993466026441</v>
+        <v>207.6264729102897</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.2215718829725</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0164539489617</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0164539489617</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0164539489617</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>152.6905191619347</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6905191619347</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X10" t="n">
-        <v>665.4295905742738</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406338</v>
+        <v>1856.233416454656</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1534.854190103781</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1221.209336466642</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>890.4220867293807</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>545.3239234055523</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914312</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.23910529302</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.23910529302</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.23910529302</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>3011.23910529302</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="W11" t="n">
-        <v>2937.731110825495</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.074780904745</v>
+        <v>2509.626320953064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.38034697154</v>
+        <v>2184.931887019859</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>691.2836731261136</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.055322752795</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5176,16 +5176,16 @@
         <v>655.0952099420615</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542445</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G13" t="n">
         <v>207.0995538131559</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1313.608118922022</v>
+        <v>1276.289856628136</v>
       </c>
       <c r="V13" t="n">
-        <v>1119.42504888904</v>
+        <v>1082.106786595155</v>
       </c>
       <c r="W13" t="n">
-        <v>907.8909219664114</v>
+        <v>1082.106786595155</v>
       </c>
       <c r="X13" t="n">
-        <v>745.6068748955884</v>
+        <v>919.8227395243316</v>
       </c>
       <c r="Y13" t="n">
-        <v>655.0952099420615</v>
+        <v>768.5069534871689</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009979</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>799.1944750219648</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>468.4072252847032</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575182</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420614</v>
+        <v>374.6989287590508</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542445</v>
+        <v>374.6989287590508</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1293.640913517783</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1293.640913517783</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.640913517783</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>1082.106786595155</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243315</v>
+        <v>530.325628668934</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871687</v>
+        <v>379.0098426317712</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,16 +6148,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
         <v>969.3241577214669</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.03502904303</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>464.3470021078692</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>464.3470021078692</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1092.11865173455</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>507.048315138615</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169078</v>
+        <v>693.339893476879</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041644</v>
+        <v>988.181648083071</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6938,16 +6938,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031230084</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222427</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184709</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806327</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>203.9305743932506</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>544.1202775014875</v>
       </c>
       <c r="N3" t="n">
-        <v>89.07681405485087</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>458.1205210672824</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709538</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>121.6746787742315</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837488</v>
+        <v>292.40210139702</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0581217063165</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>288.3536975034276</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>313.8678003657251</v>
       </c>
       <c r="N21" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -10428,19 +10428,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>374.1267046741215</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>109.343975352165</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>223.4378177638133</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>207.1349501090121</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.19607987279952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>152.6421677019316</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>255.0613059639786</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>108.0098213756631</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.5160155685197</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1197604.746057196</v>
+        <v>1196401.650829675</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1197604.746057196</v>
+        <v>1196401.650829675</v>
       </c>
     </row>
     <row r="4">
@@ -26320,10 +26320,10 @@
         <v>108199.3068560141</v>
       </c>
       <c r="E2" t="n">
-        <v>95615.41405464025</v>
+        <v>95615.41405464026</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464023</v>
+        <v>95615.41405464028</v>
       </c>
       <c r="G2" t="n">
         <v>108199.3068560141</v>
@@ -26338,7 +26338,7 @@
         <v>108199.3068560141</v>
       </c>
       <c r="K2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="L2" t="n">
         <v>108199.306856014</v>
@@ -26350,7 +26350,7 @@
         <v>108199.3068560141</v>
       </c>
       <c r="O2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="P2" t="n">
         <v>108199.3068560141</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351374.8520598785</v>
+        <v>-347023.4062455838</v>
       </c>
       <c r="C6" t="n">
-        <v>-169169.9037680227</v>
+        <v>-173164.7492115287</v>
       </c>
       <c r="D6" t="n">
-        <v>-176338.2247896941</v>
+        <v>-184074.5140130856</v>
       </c>
       <c r="E6" t="n">
-        <v>-195394.8346116094</v>
+        <v>-195604.566158299</v>
       </c>
       <c r="F6" t="n">
-        <v>-83272.2731375649</v>
+        <v>-83482.00468425441</v>
       </c>
       <c r="G6" t="n">
         <v>-170856.3719801343</v>
@@ -26543,25 +26543,25 @@
         <v>-123431.0464434524</v>
       </c>
       <c r="J6" t="n">
-        <v>-336472.9640407378</v>
+        <v>-329956.6788861647</v>
       </c>
       <c r="K6" t="n">
-        <v>-129670.8148462354</v>
+        <v>-129670.8148462353</v>
       </c>
       <c r="L6" t="n">
-        <v>-184853.4037808566</v>
+        <v>-188902.2409913288</v>
       </c>
       <c r="M6" t="n">
-        <v>-165631.8759030754</v>
+        <v>-166683.5709142635</v>
       </c>
       <c r="N6" t="n">
-        <v>-123431.0464434523</v>
+        <v>-123431.0464434524</v>
       </c>
       <c r="O6" t="n">
-        <v>-151198.7404862235</v>
+        <v>-151198.7404862237</v>
       </c>
       <c r="P6" t="n">
-        <v>-123431.0464434524</v>
+        <v>-123431.0464434521</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,13 +26814,13 @@
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>150.4939769642033</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>181.9272385096734</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>148.2483091467716</v>
       </c>
       <c r="U3" t="n">
-        <v>56.38966468158225</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.02878557500742</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>150.5144627040342</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>308.0901006757927</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>324.4834771007767</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>56.38966468158215</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>58.98005426022607</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>98.94130215447161</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>121.0209343414817</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.2388739716653</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>24.53905781618738</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,13 +28020,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>49.5999919583338</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28062,10 +28062,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>124.8917514574866</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28743,28 +28743,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>35.71049010668813</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29305,16 +29305,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29539,22 +29539,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566466</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>94.97643844045194</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224724</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668824</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28.01250026485255</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014098</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>54.20552279552332</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>451.7331554521757</v>
       </c>
       <c r="N3" t="n">
-        <v>3.704701200684217</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>309.0020297294984</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046857445</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.23022144089812</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434437</v>
+        <v>200.0149793477081</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>497.9396303685323</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>198.2933506465093</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>221.4806783164132</v>
       </c>
       <c r="N21" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,16 +36601,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>614.2507921538447</v>
       </c>
       <c r="O32" t="n">
-        <v>530.757357311451</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273768</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>284.5297693407881</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>280.0164728154107</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>271.2165915595513</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529174</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634530616</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
